--- a/Fixture_Scheduling_Rules.xlsx
+++ b/Fixture_Scheduling_Rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusAdams\Dropbox\Marcus Documents\Netball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusAdams\Dropbox\Marcus Documents\Netball\netball-fixtures-generator (1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAB5983-763E-41A9-94B9-C8AE06DCF669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1701981-35DB-4315-ACB1-DA91D894C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Rule</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Tier</t>
   </si>
   <si>
@@ -116,6 +113,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Definition</t>
   </si>
 </sst>
 </file>
@@ -486,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,16 +503,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,13 +632,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,13 +646,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -671,13 +674,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
